--- a/DJI_Matrice_600/DJI_Matrice_600.xlsx
+++ b/DJI_Matrice_600/DJI_Matrice_600.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Kuliah\S2 ITS\Semester 2\TESIS - PROPOSAL\DATASET PREPARATION\drone-timeline\DJI_Matrice_600\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7C257C-3EA7-466E-824E-B0CD038D735D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D991D7B-0743-4D81-80DE-1F4552B562A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{99A4230B-08D2-497B-B426-2E27A61F4833}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$FN$82</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1235,11 +1238,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404A5F3D-F5FE-4CE0-98D7-7F3B08597510}">
   <dimension ref="A1:FN82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="EL1" workbookViewId="0">
+      <selection activeCell="FM1" sqref="FM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:170" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -34460,6 +34466,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:FN82" xr:uid="{404A5F3D-F5FE-4CE0-98D7-7F3B08597510}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:FN82">
     <sortCondition ref="A1:A82"/>
   </sortState>
